--- a/todo.xlsx
+++ b/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E065AED9-5F53-4CE9-902A-2DAE6B8840A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A801B07B-0237-4260-BA03-8FC0A0B8FE1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Erledigt</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Pilot: automatic mapping mit snapshot auch für die Papieraufgabe (d2, matheaufgabe) um zu schauen, ob die beiden aufgabenblättter gefunden werden und um zu plotten "attention to class vs to task"</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>R auf English gestellt: Sys.setenv(LANG = "en")</t>
   </si>
   <si>
@@ -162,25 +159,34 @@
     <t>Einleitung in Beispielpaper einpflegen</t>
   </si>
   <si>
-    <t>eigene Testung organisieren bei Schulbesuch (Sportunterricht filmen etc)</t>
-  </si>
-  <si>
-    <t>Geburtstag von Probanden</t>
-  </si>
-  <si>
-    <t>item für fragebogen auflisten + counterbalancing</t>
-  </si>
-  <si>
     <t xml:space="preserve">StEx Klausuren kontrollieren </t>
   </si>
   <si>
     <t>gutachterliche Stellungnahme von Anne</t>
   </si>
   <si>
-    <t>prozedur aufsezten: beschreibung der störung als anweisung für probanden, groben Ablauf mit Zeitplan für eine Erhebungssession durchdenken (Begrüßung, Einführung, Kalibrierung, Fragebogenzeit…)</t>
-  </si>
-  <si>
     <t>Liste mit Störhandlungen</t>
+  </si>
+  <si>
+    <t>Probleme beim Knitten --&gt; alte Version von Pandoc?</t>
+  </si>
+  <si>
+    <t>items für fragebogen auflisten</t>
+  </si>
+  <si>
+    <t>prozedur aufsezten: groben Ablauf mit Zeitplan für eine Erhebungssession durchdenken (Begrüßung, Einführung, Kalibrierung, Fragebogenzeit…)</t>
+  </si>
+  <si>
+    <t>Beschreibung der Störung als Anweisung für Probanden (PPP für alle 4 Proband*innen fertig machen)</t>
+  </si>
+  <si>
+    <t>Counterbalancing</t>
+  </si>
+  <si>
+    <t>Technik aufbauen + im Raum testen --&gt; Schlüssel?</t>
+  </si>
+  <si>
+    <t>eigene Testung organisieren bei Schulbesuch (Sportunterricht filmen etc) --&gt; in Arbeit</t>
   </si>
 </sst>
 </file>
@@ -271,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -288,7 +294,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -603,11 +610,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -615,7 +622,7 @@
     <col min="1" max="1" width="4" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.81640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="28" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="37.90625" style="4" customWidth="1"/>
     <col min="5" max="5" width="40.81640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="27.81640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="25.54296875" style="4" customWidth="1"/>
@@ -652,7 +659,7 @@
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>8</v>
@@ -661,20 +668,20 @@
         <v>7</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>9</v>
@@ -685,13 +692,13 @@
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>10</v>
@@ -702,13 +709,13 @@
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>11</v>
@@ -718,79 +725,79 @@
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="D9" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="D10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="D11" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="D12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="D13" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="15" t="s">
         <v>46</v>
       </c>
       <c r="E14" s="15"/>
@@ -798,19 +805,25 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
-      <c r="D15" s="15" t="s">
-        <v>51</v>
+      <c r="D15" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
+      <c r="D16" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="E16" s="15"/>
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
+      <c r="D17" s="16" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -821,17 +834,17 @@
         <v>1</v>
       </c>
       <c r="B19" s="9"/>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="G19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -839,11 +852,11 @@
         <v>2</v>
       </c>
       <c r="B20" s="9"/>
+      <c r="D20" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="E20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -851,11 +864,11 @@
         <v>3</v>
       </c>
       <c r="B21" s="9"/>
+      <c r="D21" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="F21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -863,26 +876,14 @@
         <v>4</v>
       </c>
       <c r="B22" s="9"/>
-      <c r="D22" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <v>5</v>
       </c>
       <c r="B23" s="9"/>
-      <c r="D23" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>12</v>
+      <c r="D23" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -890,44 +891,44 @@
         <v>6</v>
       </c>
       <c r="B24" s="9"/>
-      <c r="D24" s="4" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="9"/>
+      <c r="A25" s="9">
+        <v>7</v>
+      </c>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+    <row r="26" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="9">
-        <v>7</v>
-      </c>
-      <c r="B29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
-      <c r="B31" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="B31" s="11"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="11"/>
@@ -964,22 +965,6 @@
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A801B07B-0237-4260-BA03-8FC0A0B8FE1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FD3B93-9D39-49E4-8FEC-AB3BF3E40CD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="to dos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -150,9 +150,6 @@
     <t>Exposé überarbeitet</t>
   </si>
   <si>
-    <t>EV-Erklärung</t>
-  </si>
-  <si>
     <t>Subjectlist auf Server mit pers. Angaben</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>eigene Testung organisieren bei Schulbesuch (Sportunterricht filmen etc) --&gt; in Arbeit</t>
+  </si>
+  <si>
+    <t>EV-Erklärung + Probandeninfo + Datenschutz</t>
   </si>
 </sst>
 </file>
@@ -277,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -296,6 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -614,7 +615,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -770,9 +771,6 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
-      <c r="D11" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="E11" s="4" t="s">
         <v>37</v>
       </c>
@@ -788,7 +786,7 @@
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="D13" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>40</v>
@@ -798,7 +796,7 @@
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="D14" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" s="15"/>
     </row>
@@ -806,7 +804,7 @@
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="D15" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="15"/>
     </row>
@@ -814,7 +812,7 @@
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="D16" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="15"/>
     </row>
@@ -822,7 +820,7 @@
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="D17" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -835,13 +833,13 @@
       </c>
       <c r="B19" s="9"/>
       <c r="D19" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>22</v>
@@ -853,7 +851,7 @@
       </c>
       <c r="B20" s="9"/>
       <c r="D20" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>38</v>
@@ -865,7 +863,7 @@
       </c>
       <c r="B21" s="9"/>
       <c r="D21" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>29</v>
@@ -876,21 +874,24 @@
         <v>4</v>
       </c>
       <c r="B22" s="9"/>
+      <c r="D22" s="18" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <v>5</v>
       </c>
       <c r="B23" s="9"/>
-      <c r="D23" s="4" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>6</v>
       </c>
       <c r="B24" s="9"/>
+      <c r="D24" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
@@ -908,7 +909,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>25</v>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FD3B93-9D39-49E4-8FEC-AB3BF3E40CD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCD4FD9-AA2F-4000-A9AD-AAD7F1AD239C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Erledigt</t>
   </si>
@@ -186,7 +186,13 @@
     <t>eigene Testung organisieren bei Schulbesuch (Sportunterricht filmen etc) --&gt; in Arbeit</t>
   </si>
   <si>
-    <t>EV-Erklärung + Probandeninfo + Datenschutz</t>
+    <t>Zeit bei Prozedur nochmals überarbeiten! --&gt; Fragebogen nach JEDER Unit!</t>
+  </si>
+  <si>
+    <t>Farbe für Marker eintragen</t>
+  </si>
+  <si>
+    <t>EV-Erklärung + Probandeninfo + Datenschutz (Montag mit Franzi+Carola; Mittwoch mit Gregor)</t>
   </si>
 </sst>
 </file>
@@ -277,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -286,7 +292,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -294,9 +299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -611,11 +614,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -684,10 +687,10 @@
       <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="12"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
@@ -698,13 +701,13 @@
       <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="12"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
@@ -715,10 +718,10 @@
       <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -738,10 +741,10 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -751,10 +754,10 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -764,7 +767,7 @@
       <c r="D10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>39</v>
       </c>
     </row>
@@ -785,187 +788,233 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="15"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="15"/>
+      <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="D17" s="16" t="s">
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="D17" s="15" t="s">
         <v>48</v>
       </c>
+      <c r="E17" s="14"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="9">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="D18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="D19" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
         <v>1</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="D19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
+        <v>2</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="D21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="8">
+        <v>3</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="D22" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
+        <v>4</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="D23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
+        <v>5</v>
+      </c>
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>6</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="D25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="9">
-        <v>2</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="D20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="4" t="s">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
+        <v>7</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="E26" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="9">
-        <v>3</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="D21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="9">
-        <v>4</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="D22" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="9">
-        <v>5</v>
-      </c>
-      <c r="B23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="9">
-        <v>6</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="D24" s="4" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
+        <v>8</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="8">
+        <v>9</v>
+      </c>
+      <c r="B28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="8">
+        <v>10</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="D29" s="14"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="8">
+        <v>11</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="D30" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="9">
-        <v>7</v>
-      </c>
-      <c r="B25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="8">
+        <v>12</v>
+      </c>
+      <c r="B31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="9">
+        <v>13</v>
+      </c>
+      <c r="B32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gk42fezo\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCD4FD9-AA2F-4000-A9AD-AAD7F1AD239C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4850CB-8619-4ECB-8D30-4F9B5ABFD4B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="to dos" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Erledigt</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>EV-Erklärung + Probandeninfo + Datenschutz (Montag mit Franzi+Carola; Mittwoch mit Gregor)</t>
+  </si>
+  <si>
+    <t>MARKER: 3 Videos je 10 sec; marker allein, marker front back, fläche mit 4 markern</t>
   </si>
 </sst>
 </file>
@@ -618,22 +621,22 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="28" style="4" customWidth="1"/>
-    <col min="4" max="4" width="37.90625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="40.81640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="25.54296875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="10.81640625" style="4"/>
+    <col min="4" max="4" width="37.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="10.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -653,13 +656,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
@@ -675,7 +678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
@@ -692,7 +695,7 @@
       </c>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
@@ -709,7 +712,7 @@
       </c>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
@@ -725,7 +728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
@@ -738,7 +741,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="12" t="s">
@@ -751,7 +754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="D9" s="12" t="s">
@@ -761,7 +764,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="D10" s="4" t="s">
@@ -771,21 +774,21 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="E11" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="D12" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="D13" s="14" t="s">
@@ -795,7 +798,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="D14" s="14" t="s">
@@ -803,7 +806,7 @@
       </c>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="D15" s="12" t="s">
@@ -811,7 +814,7 @@
       </c>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="D16" s="15" t="s">
@@ -819,7 +822,7 @@
       </c>
       <c r="E16" s="14"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="D17" s="15" t="s">
@@ -827,7 +830,7 @@
       </c>
       <c r="E17" s="14"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="D18" s="4" t="s">
@@ -835,20 +838,20 @@
       </c>
       <c r="E18" s="14"/>
     </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="D19" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>1</v>
       </c>
       <c r="B20" s="8"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>2</v>
       </c>
@@ -863,7 +866,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>3</v>
       </c>
@@ -872,7 +875,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>4</v>
       </c>
@@ -884,54 +887,57 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>5</v>
       </c>
       <c r="B24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D24" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>6</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="D25" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>7</v>
       </c>
       <c r="B26" s="8"/>
+      <c r="D26" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="E26" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>8</v>
       </c>
       <c r="B27" s="8"/>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>9</v>
       </c>
       <c r="B28" s="8"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>10</v>
       </c>
       <c r="B29" s="8"/>
       <c r="D29" s="14"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>11</v>
       </c>
@@ -940,19 +946,19 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>12</v>
       </c>
       <c r="B31" s="8"/>
     </row>
-    <row r="32" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>13</v>
       </c>
       <c r="B32" s="9"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>24</v>
@@ -964,55 +970,55 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
     </row>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gk42fezo\Documents\GitHub\Mandy-PhD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4850CB-8619-4ECB-8D30-4F9B5ABFD4B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4313D7-5207-4242-A4BC-924992C697D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="to dos" sheetId="1" r:id="rId1"/>
@@ -286,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -303,6 +303,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -617,26 +619,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="28" style="4" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="40.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="10.85546875" style="4"/>
+    <col min="4" max="4" width="37.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="40.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="25.54296875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="10.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -656,13 +658,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
@@ -678,7 +680,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
@@ -695,7 +697,7 @@
       </c>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
@@ -712,7 +714,7 @@
       </c>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
@@ -728,7 +730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
@@ -741,7 +743,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="12" t="s">
@@ -754,7 +756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="D9" s="12" t="s">
@@ -764,7 +766,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="D10" s="4" t="s">
@@ -774,21 +776,21 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="E11" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="D12" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="D13" s="14" t="s">
@@ -798,7 +800,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="D14" s="14" t="s">
@@ -806,7 +808,7 @@
       </c>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="D15" s="12" t="s">
@@ -814,7 +816,7 @@
       </c>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="D16" s="15" t="s">
@@ -822,7 +824,7 @@
       </c>
       <c r="E16" s="14"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="D17" s="15" t="s">
@@ -830,7 +832,7 @@
       </c>
       <c r="E17" s="14"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="D18" s="4" t="s">
@@ -838,189 +840,197 @@
       </c>
       <c r="E18" s="14"/>
     </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="D19" s="7" t="s">
+    <row r="19" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="D19" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+    <row r="20" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="D20" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="D21" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="8">
         <v>1</v>
       </c>
-      <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
         <v>2</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="D21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>3</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="D22" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>4</v>
       </c>
       <c r="B23" s="8"/>
       <c r="D23" s="12" t="s">
         <v>55</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B24" s="8"/>
       <c r="D24" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
+        <v>4</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="F25" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
+        <v>5</v>
+      </c>
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
         <v>6</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="E25" s="4" t="s">
+      <c r="B27" s="8"/>
+      <c r="E27" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="8">
         <v>7</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="D26" s="8" t="s">
+      <c r="B28" s="8"/>
+      <c r="D28" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="8">
         <v>8</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="D27" s="14"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>9</v>
-      </c>
-      <c r="B28" s="8"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <v>10</v>
       </c>
       <c r="B29" s="8"/>
       <c r="D29" s="14"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
+        <v>9</v>
+      </c>
+      <c r="B30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="8">
+        <v>10</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="8">
         <v>11</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="D30" s="14" t="s">
+      <c r="B32" s="8"/>
+      <c r="D32" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="8">
         <v>12</v>
       </c>
-      <c r="B31" s="8"/>
-    </row>
-    <row r="32" spans="1:7" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
+      <c r="B33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="9">
         <v>13</v>
       </c>
-      <c r="B32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10" t="s">
+      <c r="B34" s="9"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4313D7-5207-4242-A4BC-924992C697D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D11881B-4AC5-4B85-B0C5-7099F44FD6FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -621,9 +621,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D11881B-4AC5-4B85-B0C5-7099F44FD6FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B281FC57-E37D-4B86-8A89-1FAA6A360491}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="to dos" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Erledigt</t>
   </si>
@@ -141,9 +141,6 @@
     <t>Lebenslauf</t>
   </si>
   <si>
-    <t xml:space="preserve">Abschlusszeugnis Hochschulzugang+StEx </t>
-  </si>
-  <si>
     <t>Anschreiben</t>
   </si>
   <si>
@@ -180,9 +177,6 @@
     <t>Counterbalancing</t>
   </si>
   <si>
-    <t>Technik aufbauen + im Raum testen --&gt; Schlüssel?</t>
-  </si>
-  <si>
     <t>eigene Testung organisieren bei Schulbesuch (Sportunterricht filmen etc) --&gt; in Arbeit</t>
   </si>
   <si>
@@ -196,6 +190,21 @@
   </si>
   <si>
     <t>MARKER: 3 Videos je 10 sec; marker allein, marker front back, fläche mit 4 markern</t>
+  </si>
+  <si>
+    <t>Fragebogen fertigstellen + ausdrucken</t>
+  </si>
+  <si>
+    <t>Infomail mit Instruktionen an Carola, Gereon, Franzi, Gregor</t>
+  </si>
+  <si>
+    <t>Folie für Fragen in PPP einbauen</t>
+  </si>
+  <si>
+    <t>Technik aufbauen + im Raum testen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abschlusszeugnis StEx </t>
   </si>
 </sst>
 </file>
@@ -265,7 +274,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -282,18 +291,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -305,6 +321,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -619,11 +638,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -692,10 +711,10 @@
       <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="11"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
@@ -706,13 +725,13 @@
       <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="11"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
@@ -723,10 +742,10 @@
       <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -746,10 +765,10 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -759,10 +778,10 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -772,8 +791,8 @@
       <c r="D10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>39</v>
+      <c r="E10" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -793,244 +812,261 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
-      <c r="D13" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="D13" s="12" t="s">
         <v>40</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
-      <c r="D14" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="14"/>
+      <c r="D14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
-      <c r="D15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="14"/>
+      <c r="D15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
-      <c r="D16" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="14"/>
+      <c r="D16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
-      <c r="D17" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="14"/>
+      <c r="D17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="D18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="D19" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="D19" s="14" t="s">
+    </row>
+    <row r="20" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="D20" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="D21" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="D22" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
+        <v>1</v>
+      </c>
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
+        <v>2</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="D25" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="6">
+        <v>3</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="D26" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="6">
+        <v>4</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="D27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="6">
+        <v>5</v>
+      </c>
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="6">
+        <v>6</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="D29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
+        <v>7</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="6">
+        <v>8</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="6">
+        <v>9</v>
+      </c>
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="6">
+        <v>10</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="6">
+        <v>11</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="D34" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="D20" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="D21" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="8">
-        <v>1</v>
-      </c>
-      <c r="B22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="8">
-        <v>2</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="D23" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="8">
-        <v>3</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="D24" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="8">
-        <v>4</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="F25" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="8">
-        <v>5</v>
-      </c>
-      <c r="B26" s="8"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="8">
-        <v>6</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="E27" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="8">
-        <v>7</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="D28" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="8">
-        <v>8</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="D29" s="14"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="8">
-        <v>9</v>
-      </c>
-      <c r="B30" s="8"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="8">
-        <v>10</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="D31" s="14"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="8">
-        <v>11</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="D32" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="8">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="6">
         <v>12</v>
       </c>
-      <c r="B33" s="8"/>
-    </row>
-    <row r="34" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="9">
+      <c r="B35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="7">
         <v>13</v>
       </c>
-      <c r="B34" s="9"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10" t="s">
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G35" s="4" t="s">
+      <c r="C37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-    </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B281FC57-E37D-4B86-8A89-1FAA6A360491}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8954FA0-885C-4BDA-BF03-1869C50048EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="to dos" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Erledigt</t>
   </si>
@@ -186,9 +186,6 @@
     <t>Farbe für Marker eintragen</t>
   </si>
   <si>
-    <t>EV-Erklärung + Probandeninfo + Datenschutz (Montag mit Franzi+Carola; Mittwoch mit Gregor)</t>
-  </si>
-  <si>
     <t>MARKER: 3 Videos je 10 sec; marker allein, marker front back, fläche mit 4 markern</t>
   </si>
   <si>
@@ -204,7 +201,13 @@
     <t>Technik aufbauen + im Raum testen</t>
   </si>
   <si>
-    <t xml:space="preserve">Abschlusszeugnis StEx </t>
+    <t>EV-Erklärung + Probandeninfo + Datenschutz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beglaubigte Kopie Abschlusszeugnis StEx </t>
+  </si>
+  <si>
+    <t>Exposé nochmals lesen + ausdrucken</t>
   </si>
 </sst>
 </file>
@@ -304,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -324,6 +327,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -641,8 +645,8 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -798,6 +802,9 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
+      <c r="D11" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="E11" s="4" t="s">
         <v>37</v>
       </c>
@@ -805,15 +812,15 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
-      <c r="D12" s="4" t="s">
-        <v>35</v>
+      <c r="D12" s="12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="D13" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>39</v>
@@ -822,16 +829,18 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
-      <c r="D14" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="12"/>
+      <c r="D14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
-      <c r="D15" s="10" t="s">
-        <v>41</v>
+      <c r="D15" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="E15" s="12"/>
     </row>
@@ -839,52 +848,52 @@
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="D16" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
-      <c r="D17" s="13" t="s">
-        <v>47</v>
+      <c r="D17" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
-      <c r="D18" s="4" t="s">
-        <v>48</v>
+      <c r="D18" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
-      <c r="D19" s="12" t="s">
-        <v>49</v>
+      <c r="D19" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
-      <c r="D20" s="4" t="s">
-        <v>52</v>
+      <c r="D20" s="12" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
-      <c r="D21" s="12" t="s">
-        <v>51</v>
+      <c r="D21" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
-      <c r="D22" s="4" t="s">
-        <v>56</v>
+      <c r="D22" s="19" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -903,7 +912,10 @@
       </c>
       <c r="B25" s="6"/>
       <c r="D25" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>42</v>
@@ -918,7 +930,13 @@
       </c>
       <c r="B26" s="6"/>
       <c r="D26" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -927,10 +945,7 @@
       </c>
       <c r="B27" s="6"/>
       <c r="D27" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -945,10 +960,7 @@
       </c>
       <c r="B29" s="6"/>
       <c r="D29" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -956,12 +968,6 @@
         <v>7</v>
       </c>
       <c r="B30" s="6"/>
-      <c r="D30" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="6">

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8954FA0-885C-4BDA-BF03-1869C50048EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF035E0-EB77-49BA-BB4E-38524EFC378C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,9 +153,6 @@
     <t>Einleitung in Beispielpaper einpflegen</t>
   </si>
   <si>
-    <t xml:space="preserve">StEx Klausuren kontrollieren </t>
-  </si>
-  <si>
     <t>gutachterliche Stellungnahme von Anne</t>
   </si>
   <si>
@@ -189,9 +186,6 @@
     <t>MARKER: 3 Videos je 10 sec; marker allein, marker front back, fläche mit 4 markern</t>
   </si>
   <si>
-    <t>Fragebogen fertigstellen + ausdrucken</t>
-  </si>
-  <si>
     <t>Infomail mit Instruktionen an Carola, Gereon, Franzi, Gregor</t>
   </si>
   <si>
@@ -208,6 +202,12 @@
   </si>
   <si>
     <t>Exposé nochmals lesen + ausdrucken</t>
+  </si>
+  <si>
+    <t>StEx Klausuren kontrollieren (check 1/2)</t>
+  </si>
+  <si>
+    <t>Fragebogen fertigstellen + ausdrucken (Montag Treffen mit Franzi)</t>
   </si>
 </sst>
 </file>
@@ -645,8 +645,8 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -820,7 +820,7 @@
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="D13" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>39</v>
@@ -833,14 +833,14 @@
         <v>41</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="D15" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="12"/>
     </row>
@@ -848,7 +848,7 @@
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="D16" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="12"/>
     </row>
@@ -856,7 +856,7 @@
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="D17" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" s="12"/>
     </row>
@@ -864,7 +864,7 @@
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="D18" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" s="12"/>
     </row>
@@ -872,28 +872,28 @@
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="D19" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="D20" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="D21" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="D22" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -912,13 +912,13 @@
       </c>
       <c r="B25" s="6"/>
       <c r="D25" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>22</v>
@@ -930,10 +930,10 @@
       </c>
       <c r="B26" s="6"/>
       <c r="D26" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>29</v>
@@ -945,7 +945,7 @@
       </c>
       <c r="B27" s="6"/>
       <c r="D27" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -960,7 +960,7 @@
       </c>
       <c r="B29" s="6"/>
       <c r="D29" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -995,7 +995,7 @@
       </c>
       <c r="B34" s="6"/>
       <c r="D34" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -1016,7 +1016,7 @@
         <v>24</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>25</v>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF035E0-EB77-49BA-BB4E-38524EFC378C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35945BF0-FB30-40F2-8ABB-7BBC7507DA14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Erledigt</t>
   </si>
@@ -195,9 +195,6 @@
     <t>Technik aufbauen + im Raum testen</t>
   </si>
   <si>
-    <t>EV-Erklärung + Probandeninfo + Datenschutz</t>
-  </si>
-  <si>
     <t xml:space="preserve">beglaubigte Kopie Abschlusszeugnis StEx </t>
   </si>
   <si>
@@ -207,7 +204,13 @@
     <t>StEx Klausuren kontrollieren (check 1/2)</t>
   </si>
   <si>
-    <t>Fragebogen fertigstellen + ausdrucken (Montag Treffen mit Franzi)</t>
+    <t>EV-Erklärung + Datenschutz</t>
+  </si>
+  <si>
+    <t>Codingschema Unterrichtsstörungen</t>
+  </si>
+  <si>
+    <t>Fragebogen fertigstellen + ausdrucken</t>
   </si>
 </sst>
 </file>
@@ -307,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -328,6 +331,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -644,9 +648,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -778,6 +782,9 @@
       <c r="E8" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="F8" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
@@ -833,7 +840,7 @@
         <v>41</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -899,6 +906,9 @@
     <row r="23" spans="1:7" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="16"/>
       <c r="B23" s="17"/>
+      <c r="D23" s="20" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
@@ -911,14 +921,14 @@
         <v>2</v>
       </c>
       <c r="B25" s="6"/>
-      <c r="D25" s="10" t="s">
-        <v>56</v>
+      <c r="D25" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>22</v>
@@ -933,10 +943,7 @@
         <v>55</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -945,7 +952,7 @@
       </c>
       <c r="B27" s="6"/>
       <c r="D27" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -953,15 +960,15 @@
         <v>5</v>
       </c>
       <c r="B28" s="6"/>
+      <c r="D28" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>6</v>
       </c>
       <c r="B29" s="6"/>
-      <c r="D29" s="4" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="6">

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35945BF0-FB30-40F2-8ABB-7BBC7507DA14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E263E816-E5A6-4D16-BB35-66CFF097471E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Erledigt</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>Fragebogen fertigstellen + ausdrucken</t>
+  </si>
+  <si>
+    <t>DICKES CHECK :-D</t>
   </si>
 </sst>
 </file>
@@ -310,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -332,6 +335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -649,8 +653,8 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -822,6 +826,9 @@
       <c r="D12" s="12" t="s">
         <v>40</v>
       </c>
+      <c r="E12" s="12" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
@@ -829,8 +836,8 @@
       <c r="D13" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>39</v>
+      <c r="E13" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -840,7 +847,7 @@
         <v>41</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -849,7 +856,9 @@
       <c r="D15" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="21" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
@@ -865,7 +874,9 @@
       <c r="D17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="12"/>
+      <c r="E17" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
@@ -873,7 +884,6 @@
       <c r="D18" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="14"/>
@@ -924,9 +934,6 @@
       <c r="D25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="F25" s="4" t="s">
         <v>29</v>
       </c>
@@ -941,9 +948,6 @@
       <c r="B26" s="6"/>
       <c r="D26" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E263E816-E5A6-4D16-BB35-66CFF097471E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD0CB3B-9E32-45A6-9D07-ACF02EFA7090}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="to dos" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Erledigt</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>DICKES CHECK :-D</t>
+  </si>
+  <si>
+    <t>Mail für nä Wo Mi schreiben</t>
+  </si>
+  <si>
+    <t>ET Videos kodieren</t>
   </si>
 </sst>
 </file>
@@ -334,8 +340,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -650,26 +656,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="28" style="4" customWidth="1"/>
-    <col min="4" max="4" width="37.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="40.81640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="25.54296875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="10.81640625" style="4"/>
+    <col min="4" max="4" width="37.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="10.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -689,13 +695,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
@@ -711,7 +717,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
@@ -728,7 +734,7 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
@@ -745,7 +751,7 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
@@ -761,7 +767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
@@ -774,7 +780,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="10" t="s">
@@ -790,7 +796,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="D9" s="10" t="s">
@@ -800,7 +806,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="D10" s="4" t="s">
@@ -810,7 +816,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="D11" s="4" t="s">
@@ -820,7 +826,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="D12" s="12" t="s">
@@ -830,7 +836,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="D13" s="12" t="s">
@@ -840,7 +846,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="D14" s="10" t="s">
@@ -850,17 +856,17 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="D15" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="D16" s="13" t="s">
@@ -868,7 +874,7 @@
       </c>
       <c r="E16" s="12"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="D17" s="4" t="s">
@@ -878,212 +884,234 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="D18" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="D19" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="D20" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="D21" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="D22" s="19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="D23" s="20" t="s">
+    <row r="23" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="D23" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="6">
+    <row r="24" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="D24" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="D25" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="D26" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="D27" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
         <v>1</v>
       </c>
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="6">
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
         <v>2</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="D25" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="4" t="s">
+      <c r="B29" s="6"/>
+      <c r="D29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="6">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
         <v>3</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="D26" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="6">
+      <c r="B30" s="6"/>
+      <c r="D30" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
         <v>4</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="D27" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="6">
+      <c r="B31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
         <v>5</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="D28" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="6">
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
         <v>6</v>
       </c>
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="6">
+      <c r="B33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
         <v>7</v>
       </c>
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="6">
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
         <v>8</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="D31" s="12"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="6">
+      <c r="B35" s="6"/>
+      <c r="D35" s="12"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
         <v>9</v>
       </c>
-      <c r="B32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="6">
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
         <v>10</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="D33" s="12"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="6">
+      <c r="B37" s="6"/>
+      <c r="D37" s="12"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
         <v>11</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="D34" s="12" t="s">
+      <c r="B38" s="6"/>
+      <c r="D38" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="6">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
         <v>12</v>
       </c>
-      <c r="B35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="7">
+      <c r="B39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
         <v>13</v>
       </c>
-      <c r="B36" s="7"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8" t="s">
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G41" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gk42fezo\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD0CB3B-9E32-45A6-9D07-ACF02EFA7090}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B99C5B2-FD1F-4B42-BECF-8BD70D670BDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Erledigt</t>
   </si>
@@ -220,13 +220,28 @@
   </si>
   <si>
     <t>ET Videos kodieren</t>
+  </si>
+  <si>
+    <t>FRAGEBOGEN</t>
+  </si>
+  <si>
+    <t>Schulfach, Klasse, Schulform aufnhemen</t>
+  </si>
+  <si>
+    <t>GANZ VORN: ich bin C, ich bewerte A …oder so</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anteil Prozent effektive Lernzeit </t>
+  </si>
+  <si>
+    <t>Lernende statt SuS oder Zielgruppe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +267,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -319,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -342,6 +365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -659,8 +683,8 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,40 +1100,55 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
+      <c r="D45" s="22" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
+      <c r="D46" s="4" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
+      <c r="D47" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D48" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D49" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
     </row>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gk42fezo\Documents\GitHub\Mandy-PhD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B99C5B2-FD1F-4B42-BECF-8BD70D670BDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B420D3-5C45-470D-A4F3-62016D48660F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="to dos" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Erledigt</t>
   </si>
@@ -214,9 +214,6 @@
   </si>
   <si>
     <t>DICKES CHECK :-D</t>
-  </si>
-  <si>
-    <t>Mail für nä Wo Mi schreiben</t>
   </si>
   <si>
     <t>ET Videos kodieren</t>
@@ -683,23 +680,23 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="28" style="4" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="40.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="10.85546875" style="4"/>
+    <col min="4" max="4" width="37.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="40.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="25.54296875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="10.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -719,13 +716,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
@@ -741,7 +738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
@@ -758,7 +755,7 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
@@ -775,7 +772,7 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
@@ -791,7 +788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
@@ -804,7 +801,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="10" t="s">
@@ -820,7 +817,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="D9" s="10" t="s">
@@ -830,7 +827,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="D10" s="4" t="s">
@@ -840,7 +837,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="D11" s="4" t="s">
@@ -850,7 +847,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="D12" s="12" t="s">
@@ -860,7 +857,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="D13" s="12" t="s">
@@ -870,7 +867,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="D14" s="10" t="s">
@@ -880,17 +877,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="D15" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="D16" s="13" t="s">
@@ -898,7 +892,7 @@
       </c>
       <c r="E16" s="12"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="D17" s="4" t="s">
@@ -908,90 +902,90 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="D18" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="D19" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="D20" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="D21" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="D22" s="19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="D23" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="D24" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="D25" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="D26" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="16"/>
       <c r="B27" s="17"/>
       <c r="D27" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>1</v>
       </c>
       <c r="B28" s="6"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>2</v>
       </c>
       <c r="B29" s="6"/>
-      <c r="D29" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="F29" s="4" t="s">
         <v>29</v>
       </c>
@@ -999,60 +993,60 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>3</v>
       </c>
       <c r="B30" s="6"/>
       <c r="D30" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>4</v>
       </c>
       <c r="B31" s="6"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>5</v>
       </c>
       <c r="B32" s="6"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>6</v>
       </c>
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>7</v>
       </c>
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>8</v>
       </c>
       <c r="B35" s="6"/>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>9</v>
       </c>
       <c r="B36" s="6"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>10</v>
       </c>
       <c r="B37" s="6"/>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>11</v>
       </c>
@@ -1061,19 +1055,19 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>12</v>
       </c>
       <c r="B39" s="6"/>
     </row>
-    <row r="40" spans="1:7" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="7">
         <v>13</v>
       </c>
       <c r="B40" s="7"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="8"/>
       <c r="B41" s="8" t="s">
         <v>24</v>
@@ -1085,70 +1079,70 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="D45" s="22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="D46" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="D47" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="D48" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="D49" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
     </row>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B420D3-5C45-470D-A4F3-62016D48660F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C230AEB4-D111-41A8-BE78-B581172B8727}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -680,8 +680,8 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -689,7 +689,7 @@
     <col min="1" max="1" width="4" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.81640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="28" style="4" customWidth="1"/>
-    <col min="4" max="4" width="37.81640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="99.6328125" style="4" customWidth="1"/>
     <col min="5" max="5" width="40.81640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="27.81640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="25.54296875" style="4" customWidth="1"/>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C230AEB4-D111-41A8-BE78-B581172B8727}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399B22B9-5112-49D0-B741-E6F2092FE2A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Erledigt</t>
   </si>
@@ -174,9 +174,6 @@
     <t>Counterbalancing</t>
   </si>
   <si>
-    <t>eigene Testung organisieren bei Schulbesuch (Sportunterricht filmen etc) --&gt; in Arbeit</t>
-  </si>
-  <si>
     <t>Zeit bei Prozedur nochmals überarbeiten! --&gt; Fragebogen nach JEDER Unit!</t>
   </si>
   <si>
@@ -216,22 +213,22 @@
     <t>DICKES CHECK :-D</t>
   </si>
   <si>
-    <t>ET Videos kodieren</t>
-  </si>
-  <si>
-    <t>FRAGEBOGEN</t>
-  </si>
-  <si>
-    <t>Schulfach, Klasse, Schulform aufnhemen</t>
-  </si>
-  <si>
-    <t>GANZ VORN: ich bin C, ich bewerte A …oder so</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anteil Prozent effektive Lernzeit </t>
-  </si>
-  <si>
-    <t>Lernende statt SuS oder Zielgruppe</t>
+    <t>Ethikantrag überarbeiten --&gt; siehe Server</t>
+  </si>
+  <si>
+    <t>Videos mit BORIS kodieren</t>
+  </si>
+  <si>
+    <t>Fragebogen einpflegen --&gt; siehe Eva, Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET Videos exportieren mit metrics --&gt; GRI berechnen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mockliste ins paper hämmern </t>
+  </si>
+  <si>
+    <t>eigene Testung organisieren bei Schulbesuch (Sportunterricht filmen etc) --&gt; Montag, 10.08. erster Test in Turnhalle</t>
   </si>
 </sst>
 </file>
@@ -277,7 +274,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,6 +302,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -362,7 +365,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -680,8 +684,8 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -690,7 +694,7 @@
     <col min="2" max="2" width="10.81640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="28" style="4" customWidth="1"/>
     <col min="4" max="4" width="99.6328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="40.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" style="4" customWidth="1"/>
     <col min="6" max="6" width="27.81640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="25.54296875" style="4" customWidth="1"/>
     <col min="8" max="16384" width="10.81640625" style="4"/>
@@ -814,7 +818,7 @@
         <v>23</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -864,7 +868,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -874,7 +878,7 @@
         <v>41</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -913,66 +917,66 @@
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="D19" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="D20" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="D21" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="D22" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="D23" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="D24" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="D25" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="D26" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="16"/>
       <c r="B27" s="17"/>
       <c r="D27" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -986,8 +990,14 @@
         <v>2</v>
       </c>
       <c r="B29" s="6"/>
+      <c r="C29" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>63</v>
+      </c>
       <c r="F29" s="4" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>22</v>
@@ -998,8 +1008,8 @@
         <v>3</v>
       </c>
       <c r="B30" s="6"/>
-      <c r="D30" s="4" t="s">
-        <v>63</v>
+      <c r="D30" s="23" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -1007,6 +1017,9 @@
         <v>4</v>
       </c>
       <c r="B31" s="6"/>
+      <c r="D31" s="23" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
@@ -1045,6 +1058,9 @@
       </c>
       <c r="B37" s="6"/>
       <c r="D37" s="12"/>
+      <c r="F37" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
@@ -1052,7 +1068,7 @@
       </c>
       <c r="B38" s="6"/>
       <c r="D38" s="12" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -1094,55 +1110,41 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
-      <c r="D45" s="22" t="s">
-        <v>64</v>
-      </c>
+      <c r="D45" s="22"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
-      <c r="D46" s="4" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
-      <c r="D47" s="4" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
-      <c r="D48" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
-      <c r="D49" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
     </row>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399B22B9-5112-49D0-B741-E6F2092FE2A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52BF9D1-0E7D-478D-A4C8-F8DB307343B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Erledigt</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>eigene Testung organisieren bei Schulbesuch (Sportunterricht filmen etc) --&gt; Montag, 10.08. erster Test in Turnhalle</t>
+  </si>
+  <si>
+    <t>Videos schneiden --&gt; DaVinci</t>
   </si>
 </sst>
 </file>
@@ -342,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -367,6 +370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -685,7 +689,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -840,6 +844,9 @@
       <c r="E10" s="10" t="s">
         <v>38</v>
       </c>
+      <c r="F10" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
@@ -997,7 +1004,7 @@
         <v>63</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>22</v>
@@ -1008,9 +1015,6 @@
         <v>3</v>
       </c>
       <c r="B30" s="6"/>
-      <c r="D30" s="23" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
@@ -1018,7 +1022,7 @@
       </c>
       <c r="B31" s="6"/>
       <c r="D31" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -1032,6 +1036,9 @@
         <v>6</v>
       </c>
       <c r="B33" s="6"/>
+      <c r="D33" s="23" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
@@ -1044,7 +1051,9 @@
         <v>8</v>
       </c>
       <c r="B35" s="6"/>
-      <c r="D35" s="12"/>
+      <c r="D35" s="24" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
@@ -1058,9 +1067,6 @@
       </c>
       <c r="B37" s="6"/>
       <c r="D37" s="12"/>
-      <c r="F37" s="4" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="6">

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52BF9D1-0E7D-478D-A4C8-F8DB307343B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D222DC-42A0-40E0-90AB-25169C9DF0D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Erledigt</t>
   </si>
@@ -210,35 +210,56 @@
     <t>Fragebogen fertigstellen + ausdrucken</t>
   </si>
   <si>
-    <t>DICKES CHECK :-D</t>
-  </si>
-  <si>
     <t>Ethikantrag überarbeiten --&gt; siehe Server</t>
   </si>
   <si>
-    <t>Videos mit BORIS kodieren</t>
-  </si>
-  <si>
     <t>Fragebogen einpflegen --&gt; siehe Eva, Server</t>
   </si>
   <si>
     <t xml:space="preserve">ET Videos exportieren mit metrics --&gt; GRI berechnen </t>
   </si>
   <si>
-    <t xml:space="preserve">mockliste ins paper hämmern </t>
-  </si>
-  <si>
-    <t>eigene Testung organisieren bei Schulbesuch (Sportunterricht filmen etc) --&gt; Montag, 10.08. erster Test in Turnhalle</t>
-  </si>
-  <si>
     <t>Videos schneiden --&gt; DaVinci</t>
+  </si>
+  <si>
+    <t>Coffee Club PPP vorbereiten für Mittwoch, 19.08.2020</t>
+  </si>
+  <si>
+    <t>eigene Testung organisieren bei Schulbesuch (Sportunterricht filmen etc) --&gt; Kontaktaufnahme mit Lehrer:innen ist erfolgt</t>
+  </si>
+  <si>
+    <t>Videos mit BORIS kodieren: Codingschema erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mockliste ins Paper hämmern </t>
+  </si>
+  <si>
+    <t>DICKES CHECK</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nächster Promotionsausschuss: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16.09.2020</t>
+    </r>
+  </si>
+  <si>
+    <t>Konferenz in Antwerpen --&gt; Infos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,8 +297,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,12 +360,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -341,11 +405,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -369,10 +452,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Berechnung" xfId="4" builtinId="22"/>
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -689,7 +780,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -697,9 +788,9 @@
     <col min="1" max="1" width="4" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.81640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="28" style="4" customWidth="1"/>
-    <col min="4" max="4" width="99.6328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="102.1796875" style="4" customWidth="1"/>
     <col min="5" max="5" width="18.1796875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="45.26953125" style="4" customWidth="1"/>
     <col min="7" max="7" width="25.54296875" style="4" customWidth="1"/>
     <col min="8" max="16384" width="10.81640625" style="4"/>
   </cols>
@@ -845,7 +936,7 @@
         <v>38</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -894,6 +985,9 @@
       <c r="D15" s="13" t="s">
         <v>45</v>
       </c>
+      <c r="E15" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
@@ -909,9 +1003,6 @@
       <c r="D17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
@@ -919,6 +1010,9 @@
       <c r="D18" s="12" t="s">
         <v>48</v>
       </c>
+      <c r="E18" s="20" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="19" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="14"/>
@@ -933,6 +1027,9 @@
       <c r="D20" s="12" t="s">
         <v>49</v>
       </c>
+      <c r="E20" s="12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="21" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14"/>
@@ -961,9 +1058,6 @@
       <c r="D24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="20" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="25" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14"/>
@@ -997,11 +1091,11 @@
         <v>2</v>
       </c>
       <c r="B29" s="6"/>
-      <c r="C29" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>63</v>
+      <c r="C29" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>64</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>29</v>
@@ -1015,14 +1109,17 @@
         <v>3</v>
       </c>
       <c r="B30" s="6"/>
+      <c r="D30" s="25" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>4</v>
       </c>
       <c r="B31" s="6"/>
-      <c r="D31" s="23" t="s">
-        <v>64</v>
+      <c r="F31" s="23" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -1030,14 +1127,20 @@
         <v>5</v>
       </c>
       <c r="B32" s="6"/>
+      <c r="D32" s="25" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>6</v>
       </c>
       <c r="B33" s="6"/>
-      <c r="D33" s="23" t="s">
-        <v>65</v>
+      <c r="D33" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -1051,9 +1154,6 @@
         <v>8</v>
       </c>
       <c r="B35" s="6"/>
-      <c r="D35" s="24" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
@@ -1073,8 +1173,8 @@
         <v>11</v>
       </c>
       <c r="B38" s="6"/>
-      <c r="D38" s="12" t="s">
-        <v>67</v>
+      <c r="D38" s="28" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D222DC-42A0-40E0-90AB-25169C9DF0D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225FE02B-8AA7-44EC-B285-D81A1299C807}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="74">
   <si>
     <t>Erledigt</t>
   </si>
@@ -254,12 +254,18 @@
   <si>
     <t>Konferenz in Antwerpen --&gt; Infos</t>
   </si>
+  <si>
+    <t>Videos fürs Prantl suchen und auf Server ablegen</t>
+  </si>
+  <si>
+    <t>Videos mit BORIS kodieren: Codingschema erstellen --&gt; MAXQDR ?!?!</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,8 +332,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,6 +389,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -428,7 +447,7 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -452,12 +471,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="4" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Berechnung" xfId="4" builtinId="22"/>
@@ -780,7 +801,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -935,9 +956,6 @@
       <c r="E10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
@@ -948,6 +966,9 @@
       <c r="E11" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="F11" s="28" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
@@ -1091,10 +1112,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="6"/>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="23" t="s">
         <v>64</v>
       </c>
       <c r="F29" s="4" t="s">
@@ -1109,8 +1130,11 @@
         <v>3</v>
       </c>
       <c r="B30" s="6"/>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="24" t="s">
         <v>62</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -1118,8 +1142,8 @@
         <v>4</v>
       </c>
       <c r="B31" s="6"/>
-      <c r="F31" s="23" t="s">
-        <v>65</v>
+      <c r="F31" s="30" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -1127,8 +1151,8 @@
         <v>5</v>
       </c>
       <c r="B32" s="6"/>
-      <c r="D32" s="25" t="s">
-        <v>67</v>
+      <c r="D32" s="24" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -1136,10 +1160,10 @@
         <v>6</v>
       </c>
       <c r="B33" s="6"/>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="25" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1173,7 +1197,7 @@
         <v>11</v>
       </c>
       <c r="B38" s="6"/>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="27" t="s">
         <v>66</v>
       </c>
     </row>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20364"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225FE02B-8AA7-44EC-B285-D81A1299C807}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80C3C25-32E2-4EEF-BD75-275B687E9B25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Erledigt</t>
   </si>
@@ -210,25 +210,10 @@
     <t>Fragebogen fertigstellen + ausdrucken</t>
   </si>
   <si>
-    <t>Ethikantrag überarbeiten --&gt; siehe Server</t>
-  </si>
-  <si>
-    <t>Fragebogen einpflegen --&gt; siehe Eva, Server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET Videos exportieren mit metrics --&gt; GRI berechnen </t>
-  </si>
-  <si>
     <t>Videos schneiden --&gt; DaVinci</t>
   </si>
   <si>
     <t>Coffee Club PPP vorbereiten für Mittwoch, 19.08.2020</t>
-  </si>
-  <si>
-    <t>eigene Testung organisieren bei Schulbesuch (Sportunterricht filmen etc) --&gt; Kontaktaufnahme mit Lehrer:innen ist erfolgt</t>
-  </si>
-  <si>
-    <t>Videos mit BORIS kodieren: Codingschema erstellen</t>
   </si>
   <si>
     <t xml:space="preserve">Mockliste ins Paper hämmern </t>
@@ -255,10 +240,13 @@
     <t>Konferenz in Antwerpen --&gt; Infos</t>
   </si>
   <si>
-    <t>Videos fürs Prantl suchen und auf Server ablegen</t>
-  </si>
-  <si>
-    <t>Videos mit BORIS kodieren: Codingschema erstellen --&gt; MAXQDR ?!?!</t>
+    <t>Ethikantrag Beirat 21.09.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eigene Testung organisieren bei Schulbesuch (Sportunterricht filmen etc) --&gt; Filmen des Unterrichts 21./22.09. </t>
+  </si>
+  <si>
+    <t>Fragebogen einpflegen</t>
   </si>
 </sst>
 </file>
@@ -340,7 +328,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,12 +377,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -447,7 +429,7 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -472,13 +454,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Berechnung" xfId="4" builtinId="22"/>
@@ -797,11 +778,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -966,8 +947,8 @@
       <c r="E11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="28" t="s">
-        <v>65</v>
+      <c r="F11" s="26" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -979,6 +960,9 @@
       <c r="E12" s="12" t="s">
         <v>39</v>
       </c>
+      <c r="F12" s="27" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
@@ -1032,7 +1016,7 @@
         <v>48</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -1049,7 +1033,7 @@
         <v>49</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -1094,153 +1078,142 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="D27" s="18" t="s">
+    <row r="27" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="D27" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="6">
+    <row r="28" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="D28" s="29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="6">
         <v>1</v>
       </c>
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="6">
-        <v>2</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="6">
-        <v>3</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="D30" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="6">
-        <v>4</v>
-      </c>
       <c r="B31" s="6"/>
-      <c r="F31" s="30" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B32" s="6"/>
-      <c r="D32" s="24" t="s">
-        <v>73</v>
+      <c r="C32" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B33" s="6"/>
-      <c r="D33" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B34" s="6"/>
+      <c r="F34" s="24" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B35" s="6"/>
+      <c r="D35" s="25" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B36" s="6"/>
+      <c r="D36" s="28"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B37" s="6"/>
-      <c r="D37" s="12"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B38" s="6"/>
-      <c r="D38" s="27" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
+        <v>9</v>
+      </c>
+      <c r="B39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="6">
+        <v>10</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="D40" s="12"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="6">
+        <v>11</v>
+      </c>
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="6">
         <v>12</v>
       </c>
-      <c r="B39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="7">
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="7">
         <v>13</v>
       </c>
-      <c r="B40" s="7"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
+      <c r="B43" s="7"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
+      <c r="B44" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
-      <c r="D45" s="22"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
@@ -1253,6 +1226,7 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
+      <c r="D48" s="22"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="8"/>
@@ -1277,6 +1251,18 @@
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80C3C25-32E2-4EEF-BD75-275B687E9B25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546A6A49-E5F7-41F3-AAEC-7F865FE907C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -243,10 +243,10 @@
     <t>Ethikantrag Beirat 21.09.20</t>
   </si>
   <si>
-    <t xml:space="preserve">eigene Testung organisieren bei Schulbesuch (Sportunterricht filmen etc) --&gt; Filmen des Unterrichts 21./22.09. </t>
-  </si>
-  <si>
     <t>Fragebogen einpflegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eigene Testung organisieren bei Schulbesuch (Sportunterricht filmen etc) --&gt; Filmen des Unterrichts 28./29.09. </t>
   </si>
 </sst>
 </file>
@@ -781,8 +781,8 @@
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1089,7 +1089,7 @@
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
       <c r="D28" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="B35" s="6"/>
       <c r="D35" s="25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gk42fezo\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546A6A49-E5F7-41F3-AAEC-7F865FE907C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C3C6E3-A362-41E5-A4AB-134D9D9B9E5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Erledigt</t>
   </si>
@@ -247,6 +247,15 @@
   </si>
   <si>
     <t xml:space="preserve">eigene Testung organisieren bei Schulbesuch (Sportunterricht filmen etc) --&gt; Filmen des Unterrichts 28./29.09. </t>
+  </si>
+  <si>
+    <t>checken wann videoserver frei wird</t>
+  </si>
+  <si>
+    <t>externe festplatte für videos bestellen (1 TB) aus Berufungsmitteln  - das wird die Aperol platte</t>
+  </si>
+  <si>
+    <t>Pilotfragebögen in eine Tabelle übertragen</t>
   </si>
 </sst>
 </file>
@@ -429,7 +438,7 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -458,7 +467,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
@@ -780,9 +788,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1088,7 +1096,7 @@
     <row r="28" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="28" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1130,12 +1138,18 @@
         <v>3</v>
       </c>
       <c r="B33" s="6"/>
+      <c r="D33" s="25" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>4</v>
       </c>
       <c r="B34" s="6"/>
+      <c r="D34" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="F34" s="24" t="s">
         <v>66</v>
       </c>
@@ -1145,8 +1159,8 @@
         <v>5</v>
       </c>
       <c r="B35" s="6"/>
-      <c r="D35" s="25" t="s">
-        <v>69</v>
+      <c r="D35" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -1154,7 +1168,9 @@
         <v>6</v>
       </c>
       <c r="B36" s="6"/>
-      <c r="D36" s="28"/>
+      <c r="D36" s="19" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="6">

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gk42fezo\Documents\GitHub\Mandy-PhD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C3C6E3-A362-41E5-A4AB-134D9D9B9E5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54B7F52-1F7C-4A4F-8539-B3DEDB9C56F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="to dos" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="74">
   <si>
     <t>Erledigt</t>
   </si>
@@ -252,17 +252,20 @@
     <t>checken wann videoserver frei wird</t>
   </si>
   <si>
-    <t>externe festplatte für videos bestellen (1 TB) aus Berufungsmitteln  - das wird die Aperol platte</t>
-  </si>
-  <si>
     <t>Pilotfragebögen in eine Tabelle übertragen</t>
+  </si>
+  <si>
+    <t>externe festplatte für videos bestellen (4 TB) aus Berufungsmitteln  - Aperol-Videos sind drauf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APEROL kodieren </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,6 +335,13 @@
     <font>
       <sz val="11"/>
       <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -438,7 +448,7 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -464,10 +474,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Berechnung" xfId="4" builtinId="22"/>
@@ -786,26 +797,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="4" customWidth="1"/>
     <col min="3" max="3" width="28" style="4" customWidth="1"/>
-    <col min="4" max="4" width="102.1796875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.1796875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="45.26953125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="25.54296875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="10.81640625" style="4"/>
+    <col min="4" max="4" width="102.21875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="45.21875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="25.5546875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="10.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -825,13 +836,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
@@ -847,7 +858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
@@ -864,7 +875,7 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
@@ -881,7 +892,7 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
@@ -897,7 +908,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
@@ -910,7 +921,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="10" t="s">
@@ -926,7 +937,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="D9" s="10" t="s">
@@ -936,7 +947,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="D10" s="4" t="s">
@@ -946,7 +957,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="D11" s="4" t="s">
@@ -955,11 +966,11 @@
       <c r="E11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="D12" s="12" t="s">
@@ -968,11 +979,11 @@
       <c r="E12" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="26" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="D13" s="12" t="s">
@@ -982,7 +993,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="D14" s="10" t="s">
@@ -992,7 +1003,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="D15" s="13" t="s">
@@ -1002,7 +1013,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="D16" s="13" t="s">
@@ -1010,14 +1021,14 @@
       </c>
       <c r="E16" s="12"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="D17" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="D18" s="12" t="s">
@@ -1027,14 +1038,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="D19" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="D20" s="12" t="s">
@@ -1044,241 +1055,256 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="D21" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="D22" s="19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="D23" s="21" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="D24" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="D25" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="D26" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="15"/>
       <c r="D27" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="15"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-    </row>
-    <row r="31" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="6">
+      <c r="D29" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="D30" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="D31" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="D32" s="19"/>
+    </row>
+    <row r="33" spans="1:7" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
         <v>1</v>
       </c>
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="6">
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
         <v>2</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="24" t="s">
+      <c r="B35" s="6"/>
+      <c r="C35" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D35" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="6">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
         <v>3</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="D33" s="25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="6">
+      <c r="B36" s="6"/>
+      <c r="D36" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
         <v>4</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="D34" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="24" t="s">
+      <c r="B37" s="6"/>
+      <c r="D37" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="24" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="6">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
         <v>5</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="D35" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="6">
+      <c r="B38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
         <v>6</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="D36" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="6">
+      <c r="B39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
         <v>7</v>
       </c>
-      <c r="B37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="6">
+      <c r="B40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
         <v>8</v>
       </c>
-      <c r="B38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="6">
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
         <v>9</v>
       </c>
-      <c r="B39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="6">
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
         <v>10</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="D40" s="12"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="6">
+      <c r="B43" s="6"/>
+      <c r="D43" s="12"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
         <v>11</v>
       </c>
-      <c r="B41" s="6"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="6">
+      <c r="B44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
         <v>12</v>
       </c>
-      <c r="B42" s="6"/>
-    </row>
-    <row r="43" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="7">
+      <c r="B45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="7">
         <v>13</v>
       </c>
-      <c r="B43" s="7"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8" t="s">
+      <c r="B46" s="7"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C47" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G47" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
-      <c r="D48" s="22"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D51" s="22"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20364"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mandy Klatt\OneDrive\Dokumente\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54B7F52-1F7C-4A4F-8539-B3DEDB9C56F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320146D0-2104-4AB6-8A1A-F6E22D9895F3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="to dos" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Erledigt</t>
   </si>
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t>Fragebogen fertigstellen + ausdrucken</t>
-  </si>
-  <si>
-    <t>Videos schneiden --&gt; DaVinci</t>
   </si>
   <si>
     <t>Coffee Club PPP vorbereiten für Mittwoch, 19.08.2020</t>
@@ -237,9 +234,6 @@
     </r>
   </si>
   <si>
-    <t>Konferenz in Antwerpen --&gt; Infos</t>
-  </si>
-  <si>
     <t>Ethikantrag Beirat 21.09.20</t>
   </si>
   <si>
@@ -259,6 +253,9 @@
   </si>
   <si>
     <t xml:space="preserve">APEROL kodieren </t>
+  </si>
+  <si>
+    <t>Konferenz in Antwerpen --&gt; Anmeldung Deadline 20.11.</t>
   </si>
 </sst>
 </file>
@@ -448,7 +445,7 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -472,7 +469,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="4" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -801,7 +797,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -966,8 +962,8 @@
       <c r="E11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>62</v>
+      <c r="F11" s="24" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -979,8 +975,8 @@
       <c r="E12" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="26" t="s">
-        <v>67</v>
+      <c r="F12" s="25" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1035,7 +1031,7 @@
         <v>48</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -1052,7 +1048,7 @@
         <v>49</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -1107,29 +1103,29 @@
     <row r="28" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
-      <c r="D28" s="27" t="s">
-        <v>68</v>
+      <c r="D28" s="26" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="15"/>
       <c r="D29" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="15"/>
-      <c r="D30" s="28" t="s">
-        <v>69</v>
+      <c r="D30" s="27" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="15"/>
       <c r="D31" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -1152,11 +1148,11 @@
         <v>2</v>
       </c>
       <c r="B35" s="6"/>
-      <c r="C35" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>61</v>
+      <c r="C35" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>71</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>29</v>
@@ -1170,9 +1166,6 @@
         <v>3</v>
       </c>
       <c r="B36" s="6"/>
-      <c r="D36" s="29" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
@@ -1180,10 +1173,10 @@
       </c>
       <c r="B37" s="6"/>
       <c r="D37" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mandy Klatt\OneDrive\Dokumente\GitHub\Mandy-PhD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320146D0-2104-4AB6-8A1A-F6E22D9895F3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{320146D0-2104-4AB6-8A1A-F6E22D9895F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{1095E430-45A2-4A56-ADC8-B12EB9F6D74B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Erledigt</t>
   </si>
@@ -243,19 +243,34 @@
     <t xml:space="preserve">eigene Testung organisieren bei Schulbesuch (Sportunterricht filmen etc) --&gt; Filmen des Unterrichts 28./29.09. </t>
   </si>
   <si>
-    <t>checken wann videoserver frei wird</t>
-  </si>
-  <si>
     <t>Pilotfragebögen in eine Tabelle übertragen</t>
   </si>
   <si>
     <t>externe festplatte für videos bestellen (4 TB) aus Berufungsmitteln  - Aperol-Videos sind drauf</t>
   </si>
   <si>
-    <t xml:space="preserve">APEROL kodieren </t>
-  </si>
-  <si>
-    <t>Konferenz in Antwerpen --&gt; Anmeldung Deadline 20.11.</t>
+    <t>APEROL kodieren --&gt; Mandy fertig kodieren</t>
+  </si>
+  <si>
+    <t>Fragebogendaten einlesen und plotten</t>
+  </si>
+  <si>
+    <t>Konferenz in Antwerpen --&gt; Poster + 5min Vortrag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reli für kodierte Videos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mit GazeCode kodieren </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mit Tobii Analyzer kodieren </t>
+  </si>
+  <si>
+    <t>checken wann Videoserver frei wird</t>
+  </si>
+  <si>
+    <t>MAXQDA Export plotten --&gt; wide to long format</t>
   </si>
 </sst>
 </file>
@@ -797,7 +812,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1111,7 +1126,7 @@
       <c r="A29" s="14"/>
       <c r="B29" s="15"/>
       <c r="D29" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -1125,7 +1140,7 @@
       <c r="A31" s="14"/>
       <c r="B31" s="15"/>
       <c r="D31" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -1152,7 +1167,7 @@
         <v>62</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>29</v>
@@ -1166,6 +1181,9 @@
         <v>3</v>
       </c>
       <c r="B36" s="6"/>
+      <c r="D36" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
@@ -1173,7 +1191,7 @@
       </c>
       <c r="B37" s="6"/>
       <c r="D37" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F37" s="23" t="s">
         <v>72</v>
@@ -1184,12 +1202,18 @@
         <v>5</v>
       </c>
       <c r="B38" s="6"/>
+      <c r="D38" s="19" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>6</v>
       </c>
       <c r="B39" s="6"/>
+      <c r="D39" s="19" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
@@ -1202,6 +1226,9 @@
         <v>8</v>
       </c>
       <c r="B41" s="6"/>
+      <c r="D41" s="4" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
@@ -1214,7 +1241,9 @@
         <v>10</v>
       </c>
       <c r="B43" s="6"/>
-      <c r="D43" s="12"/>
+      <c r="D43" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="6">

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20364"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54B7F52-1F7C-4A4F-8539-B3DEDB9C56F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBF11BE-C4DB-4DA2-A770-90E8D2DB9522}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="73">
   <si>
     <t>Erledigt</t>
   </si>
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t>Fragebogen fertigstellen + ausdrucken</t>
-  </si>
-  <si>
-    <t>Videos schneiden --&gt; DaVinci</t>
   </si>
   <si>
     <t>Coffee Club PPP vorbereiten für Mittwoch, 19.08.2020</t>
@@ -399,7 +396,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -440,6 +437,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -472,13 +482,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="4" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="4" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Berechnung" xfId="4" builtinId="22"/>
@@ -800,8 +810,8 @@
   <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -966,8 +976,8 @@
       <c r="E11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>62</v>
+      <c r="F11" s="24" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -979,8 +989,8 @@
       <c r="E12" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="26" t="s">
-        <v>67</v>
+      <c r="F12" s="25" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1035,7 +1045,7 @@
         <v>48</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -1052,7 +1062,7 @@
         <v>49</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -1107,29 +1117,29 @@
     <row r="28" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
-      <c r="D28" s="27" t="s">
-        <v>68</v>
+      <c r="D28" s="26" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="15"/>
       <c r="D29" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="15"/>
-      <c r="D30" s="28" t="s">
-        <v>69</v>
+      <c r="D30" s="27" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="15"/>
       <c r="D31" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -1152,11 +1162,11 @@
         <v>2</v>
       </c>
       <c r="B35" s="6"/>
-      <c r="C35" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>61</v>
+      <c r="C35" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>29</v>
@@ -1170,20 +1180,14 @@
         <v>3</v>
       </c>
       <c r="B36" s="6"/>
-      <c r="D36" s="29" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>4</v>
       </c>
       <c r="B37" s="6"/>
-      <c r="D37" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>66</v>
+      <c r="F37" s="23" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
